--- a/biology/Médecine/Nerf_petit_occipital/Nerf_petit_occipital.xlsx
+++ b/biology/Médecine/Nerf_petit_occipital/Nerf_petit_occipital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf petit occipital ou (branche mastoïdienne du plexus cervical superficiel) est un nerf sensitif issu du plexus cervical superficiel.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf petit occipital nait de la branche antérieure du deuxième nerf cervical entre l'atlas et l'axis.
 Rarement, il peut recevoir des fibres du troisième nerf cervical.
@@ -543,13 +557,13 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf petit occipital se dirige en dehors jusqu'au bord postérieur du muscle sternocléidomastoïdien puis se dirige en haut et en arrière en suivant le bord postérieur du muscle à l'intérieur de sa gaine.
 Il transperce le fascia musculaire à une hauteur variable puis se termine en deux rameaux antérieur et postérieur qui innerve la région mastoïdienne et la région occipitale.
-Il se connecte au nerf grand auriculaire, au nerf grand occipital et au nerf auriculaire postérieur[1].
-Variation
-Rarement, le nerf petit occipital peut être dupliqué ou triplé[1] et sa taille est variable.
+Il se connecte au nerf grand auriculaire, au nerf grand occipital et au nerf auriculaire postérieur.
 </t>
         </is>
       </c>
@@ -575,12 +589,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rarement, le nerf petit occipital peut être dupliqué ou triplé et sa taille est variable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_petit_occipital</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_petit_occipital</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une lésion du nerf petit occipital provoque une névralgie d'Arnold. Son bloc nerveux est difficile en raison de son trajet variable[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une lésion du nerf petit occipital provoque une névralgie d'Arnold. Son bloc nerveux est difficile en raison de son trajet variable.
 </t>
         </is>
       </c>
